--- a/Deepeka/PhpTravels01/Feature01/Fdata1.xlsx
+++ b/Deepeka/PhpTravels01/Feature01/Fdata1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepika\source\repos\PhpTravels01\PhpTravels01\Feature01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BB2B0A-69B1-4084-9600-AB0AC80A2058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AA6AA8-3589-41A0-B7E1-198378BE9381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4512" yWindow="4152" windowWidth="15852" windowHeight="8208" xr2:uid="{DEE0FEEC-3822-42E2-A5D6-A42A85B5BE69}"/>
+    <workbookView xWindow="6444" yWindow="2076" windowWidth="15852" windowHeight="8208" xr2:uid="{DEE0FEEC-3822-42E2-A5D6-A42A85B5BE69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,10 +483,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="3">
-        <v>44706</v>
+        <v>44715</v>
       </c>
       <c r="F2" s="3">
-        <v>44708</v>
+        <v>44718</v>
       </c>
     </row>
   </sheetData>
